--- a/English/BT về the other, another.xlsx
+++ b/English/BT về the other, another.xlsx
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>1. Two of the students are absent. All of ___ are in online class.</t>
-  </si>
-  <si>
-    <t>a. another          b.  the other          c. the others          d. other            e. others</t>
   </si>
   <si>
     <t>2. You have many ways to get to your school. Your school is not too far, so one of the ways is walking. ___ are riding a bicycle and walking.</t>
@@ -130,12 +127,38 @@
   <si>
     <t>13. The class is divided into 2 groups. One is group 1, _____ is group 2.</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a. another          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF404040"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>b.  the other </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF404040"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>         c. the others          d. other            e. others</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +191,15 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -190,11 +222,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -497,132 +530,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
@@ -630,7 +664,7 @@
     </row>
     <row r="28" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
@@ -638,67 +672,67 @@
     </row>
     <row r="30" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
